--- a/data/trans_dic/P7A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &gt; 60 años</t>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>62,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>59,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,75%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>54,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>63,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>67,22%</t>
+          <t>69,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>76,48%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>59,09%</t>
+          <t>63,05%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>64,95%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>62,55%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>62,92%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>67,44%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,06; 68,3</t>
+          <t>47,23; 72,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,85; 68,4</t>
+          <t>40,25; 68,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,74; 63,15</t>
+          <t>50,98; 67,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,82; 65,49</t>
+          <t>49,94; 66,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,69; 61,85</t>
+          <t>34,68; 65,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,3; 76,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,23; 76,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,77; 71,39</t>
+          <t>54,31; 71,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,0; 73,03</t>
+          <t>61,28; 76,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,43; 67,63</t>
+          <t>59,0; 70,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>63,91; 71,81</t>
+          <t>60,83; 70,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,15; 71,0</t>
+          <t>69,34; 82,34</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>58,36; 66,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>58,71; 67,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>54,82; 63,49</t>
+          <t>53,85; 69,46</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>56,15; 70,6</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>57,57; 67,06</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>58,11; 67,08</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>56,97; 73,67</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>30,55%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>32,13%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>28,9%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>37,22%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,33; 32,69</t>
+          <t>25,35; 36,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,69; 32,64</t>
+          <t>26,65; 37,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,68; 31,7</t>
+          <t>23,43; 32,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,74; 31,63</t>
+          <t>23,26; 31,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,5; 33,56</t>
+          <t>29,63; 41,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,19; 37,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 37,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,1; 33,77</t>
+          <t>25,11; 35,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 33,46</t>
+          <t>27,69; 38,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,47; 33,05</t>
+          <t>25,58; 33,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,35; 33,63</t>
+          <t>26,85; 34,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,02; 33,76</t>
+          <t>33,11; 43,78</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 31,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 31,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>26,23; 32,22</t>
+          <t>26,73; 34,69</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>28,41; 36,05</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>25,88; 32,18</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>25,97; 31,79</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>33,14; 41,16</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>24,98%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>26,1%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,99; 34,26</t>
+          <t>22,78; 36,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,87; 33,96</t>
+          <t>23,99; 35,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,04; 33,86</t>
+          <t>27,27; 36,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,54; 33,71</t>
+          <t>25,06; 33,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,13; 32,81</t>
+          <t>25,49; 36,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 25,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,18; 25,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 24,28</t>
+          <t>16,46; 27,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,49; 25,76</t>
+          <t>16,07; 24,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 29,64</t>
+          <t>17,09; 25,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,24; 28,88</t>
+          <t>18,64; 26,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,27; 28,61</t>
+          <t>21,44; 31,52</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>22,22; 27,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,33; 28,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 29,64</t>
+          <t>21,4; 29,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 28,94</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 29,6</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>22,51; 28,25</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>24,98; 32,56</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>38,76%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>38,65%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>35,95%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>41,51%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 37,99</t>
+          <t>31,22; 38,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,15; 37,74</t>
+          <t>28,49; 37,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,59; 37,26</t>
+          <t>25,09; 36,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,65; 37,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,05; 39,54</t>
+          <t>37,02; 48,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,61; 41,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,56; 41,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,27; 39,53</t>
+          <t>39,4; 46,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,54; 40,35</t>
+          <t>40,77; 49,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,64; 42,28</t>
+          <t>37,04; 47,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,17; 39,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,17; 38,55</t>
+          <t>34,51; 46,1</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>33,53; 37,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,68; 37,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>35,38; 39,99</t>
+          <t>36,18; 41,56</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>35,4; 41,84</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>32,07; 40,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>37,25; 45,35</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34,65%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34,58%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39,28%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36,51%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36,95%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>35,41%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>35,56%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32,23; 37,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31,58; 37,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31,82; 37,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31,71; 37,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35,6; 42,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36,34; 41,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36,44; 41,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33,77; 38,41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>33,9; 39,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39,53; 45,96</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>35,07; 38,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>34,89; 38,82</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>33,65; 37,43</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>33,66; 37,33</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>38,69; 43,6</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,79%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>140846</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>202367</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>315330</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>428383</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>242462</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>166931</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>291840</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>410547</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>589995</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>490114</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>307778</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>494207</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>725877</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1018377</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>732575</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>106984; 164949</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>136546; 232691</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>268040; 352992</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>361328; 477500</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>154471; 291503</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>142127; 187947</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>258414; 323280</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>374542; 449704</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>544524; 632895</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>444335; 527645</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>262870; 339115</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>427263; 537210</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>668079; 778193</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>940628; 1085729</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>618834; 800223</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>201209</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>298715</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>338503</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>444118</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>381132</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>216120</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>320338</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>364131</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>455308</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>415651</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>417329</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>619053</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>702633</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>899426</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>796783</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>164971; 240635</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>247902; 346390</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>282403; 393274</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>376873; 517146</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>314409; 441639</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>179560; 257295</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>276010; 378917</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>313718; 411888</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>403182; 514076</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>357364; 472553</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>365103; 473825</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>547492; 694584</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>629235; 782371</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>810648; 992259</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>709369; 881088</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>134219</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>213767</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>269115</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>314825</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>254947</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>114748</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>157183</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>195017</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>252355</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>232371</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>248967</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>370950</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>464132</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>567180</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>487318</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>103808; 165017</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>171706; 256087</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>229683; 310779</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>273128; 365598</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>210250; 304252</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>87512; 145925</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>123587; 191500</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>159931; 238506</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>215718; 301028</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>189764; 278923</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>211331; 294695</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>314049; 429709</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>408082; 526290</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>505840; 634877</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>427086; 556770</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>668.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>731820</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>472973</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>261888</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>464420</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>897556</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>626001</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>319785</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>394818</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1629375</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1098974</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>581673</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>859238</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>660120; 813632</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>411042; 542155</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>215848; 311651</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>402630; 526599</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>823366; 966579</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>571141; 695521</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>280789; 361628</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>339001; 452837</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1520942; 1747362</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1006715; 1189764</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>518948; 649856</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>771087; 938802</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>490.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>488.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>471.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>495.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>560.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1090.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>916.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1047.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1031.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>853.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1208095</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1187821</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1184835</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1187325</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1342961</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1395355</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1395362</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1289480</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1297658</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1532954</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2603449</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2583184</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2474315</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2484983</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>2875915</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1111233; 1300300</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1082426; 1298002</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1092505; 1286055</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1088790; 1291197</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1217296; 1454509</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1307607; 1487186</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1307507; 1497341</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1200490; 1365658</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1204758; 1390580</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1418264; 1648952</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2470795; 2734122</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>2448272; 2723629</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>2351584; 2615768</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>2351839; 2608235</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>2711044; 3055093</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
